--- a/基本設計/テーブル定義書.xlsx
+++ b/基本設計/テーブル定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617E78CC-CF4B-4E20-A046-BEF3A71E5B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A37933-BCCD-4236-BA35-FE464E98A172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1143,103 +1143,103 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3550,25 +3550,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="83"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="84" t="s">
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="82"/>
-      <c r="K1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
@@ -3578,27 +3578,27 @@
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
       <c r="C2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="88" t="s">
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="86"/>
-      <c r="K2" s="87"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
       <c r="L2" s="6" t="s">
         <v>22</v>
       </c>
@@ -3606,48 +3606,48 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="89"/>
-      <c r="P2" s="87"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="89"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="94" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="98"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="99"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="101"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -3688,10 +3688,10 @@
       <c r="K6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="100" t="s">
+      <c r="L6" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="101"/>
+      <c r="M6" s="103"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -3715,10 +3715,10 @@
       <c r="D7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="105"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="24" t="s">
         <v>18</v>
       </c>
@@ -3730,10 +3730,10 @@
       </c>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="102" t="s">
+      <c r="L7" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="103"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="25"/>
       <c r="O7" s="23"/>
       <c r="P7" s="26"/>
@@ -3751,10 +3751,10 @@
       <c r="D8" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="106" t="s">
+      <c r="E8" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="107"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="24" t="s">
         <v>18</v>
       </c>
@@ -3762,8 +3762,8 @@
       <c r="I8" s="24"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="78"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="107"/>
       <c r="N8" s="25"/>
       <c r="O8" s="23"/>
       <c r="P8" s="26"/>
@@ -3781,10 +3781,10 @@
       <c r="D9" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="107"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="24" t="s">
         <v>18</v>
       </c>
@@ -3792,8 +3792,8 @@
       <c r="I9" s="24"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="76"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="78"/>
       <c r="N9" s="25"/>
       <c r="O9" s="23"/>
       <c r="P9" s="26"/>
@@ -3811,10 +3811,10 @@
       <c r="D10" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="106" t="s">
+      <c r="E10" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="107"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="24" t="s">
         <v>18</v>
       </c>
@@ -3822,8 +3822,8 @@
       <c r="I10" s="24"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="76"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="78"/>
       <c r="N10" s="25"/>
       <c r="O10" s="23"/>
       <c r="P10" s="26"/>
@@ -3841,10 +3841,10 @@
       <c r="D11" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="106" t="s">
+      <c r="E11" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="107"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="24" t="s">
         <v>18</v>
       </c>
@@ -3852,8 +3852,8 @@
       <c r="I11" s="24"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="76"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="78"/>
       <c r="N11" s="25"/>
       <c r="O11" s="23"/>
       <c r="P11" s="26"/>
@@ -3871,10 +3871,10 @@
       <c r="D12" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="106" t="s">
+      <c r="E12" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="107"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="24" t="s">
         <v>18</v>
       </c>
@@ -3882,8 +3882,8 @@
       <c r="I12" s="24"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="76"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="78"/>
       <c r="N12" s="25"/>
       <c r="O12" s="23"/>
       <c r="P12" s="26"/>
@@ -3901,10 +3901,10 @@
       <c r="D13" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="106" t="s">
+      <c r="E13" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="107"/>
+      <c r="F13" s="82"/>
       <c r="G13" s="24" t="s">
         <v>18</v>
       </c>
@@ -3912,8 +3912,8 @@
       <c r="I13" s="24"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="76"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="78"/>
       <c r="N13" s="25"/>
       <c r="O13" s="23"/>
       <c r="P13" s="26"/>
@@ -3931,10 +3931,10 @@
       <c r="D14" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="79" t="s">
+      <c r="E14" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="80"/>
+      <c r="F14" s="76"/>
       <c r="G14" s="24" t="s">
         <v>18</v>
       </c>
@@ -3942,10 +3942,10 @@
       <c r="I14" s="24"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
-      <c r="L14" s="75" t="s">
+      <c r="L14" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="76"/>
+      <c r="M14" s="78"/>
       <c r="N14" s="25"/>
       <c r="O14" s="23"/>
       <c r="P14" s="26"/>
@@ -3963,10 +3963,10 @@
       <c r="D15" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="106" t="s">
+      <c r="E15" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="107"/>
+      <c r="F15" s="82"/>
       <c r="G15" s="24" t="s">
         <v>18</v>
       </c>
@@ -3974,8 +3974,8 @@
       <c r="I15" s="24"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="76"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="78"/>
       <c r="N15" s="25"/>
       <c r="O15" s="23"/>
       <c r="P15" s="26"/>
@@ -3993,10 +3993,10 @@
       <c r="D16" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="106" t="s">
+      <c r="E16" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="107"/>
+      <c r="F16" s="82"/>
       <c r="G16" s="24" t="s">
         <v>18</v>
       </c>
@@ -4004,8 +4004,8 @@
       <c r="I16" s="24"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="76"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="78"/>
       <c r="N16" s="25"/>
       <c r="O16" s="23"/>
       <c r="P16" s="26"/>
@@ -4023,10 +4023,10 @@
       <c r="D17" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="106" t="s">
+      <c r="E17" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="107"/>
+      <c r="F17" s="82"/>
       <c r="G17" s="24" t="s">
         <v>18</v>
       </c>
@@ -4034,8 +4034,8 @@
       <c r="I17" s="24"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="76"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="78"/>
       <c r="N17" s="25"/>
       <c r="O17" s="23"/>
       <c r="P17" s="26"/>
@@ -4053,10 +4053,10 @@
       <c r="D18" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="106" t="s">
+      <c r="E18" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="107"/>
+      <c r="F18" s="82"/>
       <c r="G18" s="24" t="s">
         <v>18</v>
       </c>
@@ -4064,8 +4064,8 @@
       <c r="I18" s="24"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="76"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="78"/>
       <c r="N18" s="25"/>
       <c r="O18" s="23"/>
       <c r="P18" s="26"/>
@@ -4083,10 +4083,10 @@
       <c r="D19" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="79" t="s">
+      <c r="E19" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="80"/>
+      <c r="F19" s="76"/>
       <c r="G19" s="24" t="s">
         <v>18</v>
       </c>
@@ -4094,10 +4094,10 @@
       <c r="I19" s="24"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
-      <c r="L19" s="75" t="s">
+      <c r="L19" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="76"/>
+      <c r="M19" s="78"/>
       <c r="N19" s="25"/>
       <c r="O19" s="23"/>
       <c r="P19" s="26"/>
@@ -4115,10 +4115,10 @@
       <c r="D20" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="79" t="s">
+      <c r="E20" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="80"/>
+      <c r="F20" s="76"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
@@ -4126,10 +4126,10 @@
       <c r="K20" s="23">
         <v>0</v>
       </c>
-      <c r="L20" s="75" t="s">
+      <c r="L20" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="M20" s="76"/>
+      <c r="M20" s="78"/>
       <c r="N20" s="25"/>
       <c r="O20" s="23"/>
       <c r="P20" s="26"/>
@@ -4147,10 +4147,10 @@
       <c r="D21" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="79" t="s">
+      <c r="E21" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="80"/>
+      <c r="F21" s="76"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4158,8 +4158,8 @@
       <c r="K21" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="L21" s="75"/>
-      <c r="M21" s="76"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="78"/>
       <c r="N21" s="25"/>
       <c r="O21" s="23"/>
       <c r="P21" s="26"/>
@@ -4177,10 +4177,10 @@
       <c r="D22" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="79" t="s">
+      <c r="E22" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="80"/>
+      <c r="F22" s="76"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4188,14 +4188,40 @@
       <c r="K22" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="L22" s="75"/>
-      <c r="M22" s="76"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="78"/>
       <c r="N22" s="25"/>
       <c r="O22" s="23"/>
       <c r="P22" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="E7:F7"/>
@@ -4212,32 +4238,6 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/基本設計/テーブル定義書.xlsx
+++ b/基本設計/テーブル定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A37933-BCCD-4236-BA35-FE464E98A172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986FD687-A459-4E6B-9FB4-3BBAAC0B208F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,10 +396,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>D.Iブログにアカウントのデータ登録機能</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>田中</t>
     <rPh sb="0" eb="2">
       <t>タナカ</t>
@@ -442,6 +438,16 @@
   </si>
   <si>
     <t>AUTO_INCREMENT(自動採番)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>D.Iブログにアカウントのデータ登録、更新、削除機能</t>
+    <rPh sb="19" eb="21">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1143,15 +1149,90 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1165,81 +1246,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3527,7 +3533,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="C3" sqref="C3:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -3550,55 +3556,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="83"/>
+      <c r="B1" s="81"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="86" t="s">
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="84"/>
-      <c r="K1" s="85"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="83"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
       <c r="C2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="90" t="s">
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="87"/>
       <c r="L2" s="6" t="s">
         <v>22</v>
       </c>
@@ -3606,48 +3612,48 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="91"/>
-      <c r="P2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="87"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="98"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="96"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="101"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="99"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -3670,7 +3676,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="31" t="s">
@@ -3688,10 +3694,10 @@
       <c r="K6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="103"/>
+      <c r="M6" s="101"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -3715,10 +3721,10 @@
       <c r="D7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="80"/>
+      <c r="E7" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="105"/>
       <c r="G7" s="24" t="s">
         <v>18</v>
       </c>
@@ -3730,10 +3736,10 @@
       </c>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="104" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="105"/>
+      <c r="L7" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="103"/>
       <c r="N7" s="25"/>
       <c r="O7" s="23"/>
       <c r="P7" s="26"/>
@@ -3751,10 +3757,10 @@
       <c r="D8" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="82"/>
+      <c r="E8" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="107"/>
       <c r="G8" s="24" t="s">
         <v>18</v>
       </c>
@@ -3762,8 +3768,8 @@
       <c r="I8" s="24"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="107"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="78"/>
       <c r="N8" s="25"/>
       <c r="O8" s="23"/>
       <c r="P8" s="26"/>
@@ -3781,10 +3787,10 @@
       <c r="D9" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="82"/>
+      <c r="E9" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="107"/>
       <c r="G9" s="24" t="s">
         <v>18</v>
       </c>
@@ -3792,8 +3798,8 @@
       <c r="I9" s="24"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="78"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="76"/>
       <c r="N9" s="25"/>
       <c r="O9" s="23"/>
       <c r="P9" s="26"/>
@@ -3811,10 +3817,10 @@
       <c r="D10" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="82"/>
+      <c r="E10" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="107"/>
       <c r="G10" s="24" t="s">
         <v>18</v>
       </c>
@@ -3822,8 +3828,8 @@
       <c r="I10" s="24"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="78"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="76"/>
       <c r="N10" s="25"/>
       <c r="O10" s="23"/>
       <c r="P10" s="26"/>
@@ -3841,10 +3847,10 @@
       <c r="D11" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="82"/>
+      <c r="E11" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="107"/>
       <c r="G11" s="24" t="s">
         <v>18</v>
       </c>
@@ -3852,8 +3858,8 @@
       <c r="I11" s="24"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="78"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="76"/>
       <c r="N11" s="25"/>
       <c r="O11" s="23"/>
       <c r="P11" s="26"/>
@@ -3871,10 +3877,10 @@
       <c r="D12" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="81" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="82"/>
+      <c r="E12" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="107"/>
       <c r="G12" s="24" t="s">
         <v>18</v>
       </c>
@@ -3882,8 +3888,8 @@
       <c r="I12" s="24"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="78"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="76"/>
       <c r="N12" s="25"/>
       <c r="O12" s="23"/>
       <c r="P12" s="26"/>
@@ -3901,10 +3907,10 @@
       <c r="D13" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="81" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="82"/>
+      <c r="E13" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="107"/>
       <c r="G13" s="24" t="s">
         <v>18</v>
       </c>
@@ -3912,8 +3918,8 @@
       <c r="I13" s="24"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="78"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="76"/>
       <c r="N13" s="25"/>
       <c r="O13" s="23"/>
       <c r="P13" s="26"/>
@@ -3931,10 +3937,10 @@
       <c r="D14" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="76"/>
+      <c r="E14" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="80"/>
       <c r="G14" s="24" t="s">
         <v>18</v>
       </c>
@@ -3942,10 +3948,10 @@
       <c r="I14" s="24"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
-      <c r="L14" s="77" t="s">
+      <c r="L14" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="78"/>
+      <c r="M14" s="76"/>
       <c r="N14" s="25"/>
       <c r="O14" s="23"/>
       <c r="P14" s="26"/>
@@ -3963,10 +3969,10 @@
       <c r="D15" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="81" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="82"/>
+      <c r="E15" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="107"/>
       <c r="G15" s="24" t="s">
         <v>18</v>
       </c>
@@ -3974,8 +3980,8 @@
       <c r="I15" s="24"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="78"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="76"/>
       <c r="N15" s="25"/>
       <c r="O15" s="23"/>
       <c r="P15" s="26"/>
@@ -3993,10 +3999,10 @@
       <c r="D16" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="82"/>
+      <c r="E16" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="107"/>
       <c r="G16" s="24" t="s">
         <v>18</v>
       </c>
@@ -4004,8 +4010,8 @@
       <c r="I16" s="24"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="78"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="76"/>
       <c r="N16" s="25"/>
       <c r="O16" s="23"/>
       <c r="P16" s="26"/>
@@ -4023,10 +4029,10 @@
       <c r="D17" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="82"/>
+      <c r="E17" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="107"/>
       <c r="G17" s="24" t="s">
         <v>18</v>
       </c>
@@ -4034,8 +4040,8 @@
       <c r="I17" s="24"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="78"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="76"/>
       <c r="N17" s="25"/>
       <c r="O17" s="23"/>
       <c r="P17" s="26"/>
@@ -4053,10 +4059,10 @@
       <c r="D18" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="81" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="82"/>
+      <c r="E18" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="107"/>
       <c r="G18" s="24" t="s">
         <v>18</v>
       </c>
@@ -4064,8 +4070,8 @@
       <c r="I18" s="24"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="78"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="76"/>
       <c r="N18" s="25"/>
       <c r="O18" s="23"/>
       <c r="P18" s="26"/>
@@ -4083,10 +4089,10 @@
       <c r="D19" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="76"/>
+      <c r="E19" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="80"/>
       <c r="G19" s="24" t="s">
         <v>18</v>
       </c>
@@ -4094,10 +4100,10 @@
       <c r="I19" s="24"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
-      <c r="L19" s="77" t="s">
+      <c r="L19" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="78"/>
+      <c r="M19" s="76"/>
       <c r="N19" s="25"/>
       <c r="O19" s="23"/>
       <c r="P19" s="26"/>
@@ -4115,10 +4121,10 @@
       <c r="D20" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="76"/>
+      <c r="E20" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="80"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
@@ -4126,10 +4132,10 @@
       <c r="K20" s="23">
         <v>0</v>
       </c>
-      <c r="L20" s="77" t="s">
+      <c r="L20" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="M20" s="78"/>
+      <c r="M20" s="76"/>
       <c r="N20" s="25"/>
       <c r="O20" s="23"/>
       <c r="P20" s="26"/>
@@ -4147,10 +4153,10 @@
       <c r="D21" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="76"/>
+      <c r="E21" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="80"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4158,8 +4164,8 @@
       <c r="K21" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="L21" s="77"/>
-      <c r="M21" s="78"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="76"/>
       <c r="N21" s="25"/>
       <c r="O21" s="23"/>
       <c r="P21" s="26"/>
@@ -4177,10 +4183,10 @@
       <c r="D22" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="76"/>
+      <c r="E22" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="80"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4188,24 +4194,30 @@
       <c r="K22" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="L22" s="77"/>
-      <c r="M22" s="78"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="76"/>
       <c r="N22" s="25"/>
       <c r="O22" s="23"/>
       <c r="P22" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -4222,22 +4234,16 @@
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
